--- a/WorkFlow.xlsx
+++ b/WorkFlow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K-Gen\Documents\CS-498\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE76C467-D946-46CD-9A7C-BE4218055DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B144EDEB-E510-4BF8-9C09-50EBC3A5FB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C6DFAC24-F52D-4DDE-A854-D1B49789A709}"/>
+    <workbookView xWindow="9030" yWindow="3315" windowWidth="28800" windowHeight="15345" xr2:uid="{C6DFAC24-F52D-4DDE-A854-D1B49789A709}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Status</t>
   </si>
@@ -60,16 +60,31 @@
     <t>Recreate dataset with only numbers</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Train/ Test Data</t>
-  </si>
-  <si>
     <t>Implementation on pandas to parse data</t>
   </si>
   <si>
     <t>Running</t>
+  </si>
+  <si>
+    <t>Data analyst of assignment 3 for supervision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perceptron </t>
+  </si>
+  <si>
+    <t>Train/ Test Data phase</t>
+  </si>
+  <si>
+    <t>Loggicstic regression, Decisison tree</t>
+  </si>
+  <si>
+    <t>Neural Network Training</t>
+  </si>
+  <si>
+    <t>Abstract For paper</t>
+  </si>
+  <si>
+    <t>Learning for xG boost</t>
   </si>
 </sst>
 </file>
@@ -499,7 +514,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,12 +584,12 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -590,73 +605,103 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">

--- a/WorkFlow.xlsx
+++ b/WorkFlow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K-Gen\Documents\CS-498\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B144EDEB-E510-4BF8-9C09-50EBC3A5FB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914A9E51-E17A-449A-8F36-0083167C559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9030" yWindow="3315" windowWidth="28800" windowHeight="15345" xr2:uid="{C6DFAC24-F52D-4DDE-A854-D1B49789A709}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Status</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Learning for xG boost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Modelling </t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +663,12 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>

--- a/WorkFlow.xlsx
+++ b/WorkFlow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K-Gen\Documents\CS-498\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914A9E51-E17A-449A-8F36-0083167C559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080EA9F4-2002-4D58-B8A6-88D66BF07DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9030" yWindow="3315" windowWidth="28800" windowHeight="15345" xr2:uid="{C6DFAC24-F52D-4DDE-A854-D1B49789A709}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Status</t>
   </si>
@@ -88,6 +88,21 @@
   </si>
   <si>
     <t xml:space="preserve">New Modelling </t>
+  </si>
+  <si>
+    <t>Data optimizing</t>
+  </si>
+  <si>
+    <t>Web Development and model saving</t>
+  </si>
+  <si>
+    <t>Train on more assignments</t>
+  </si>
+  <si>
+    <t>Learning LSTM, Transformers, NLP</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
 </sst>
 </file>
@@ -516,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E00FB42-F436-49C8-9835-5C08D4BF0F18}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +674,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,20 +682,40 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-    </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
